--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="32">
@@ -773,11 +773,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-4000000</v>
       </c>
     </row>
     <row r="11">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500000</v>
+        <v>-2000000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2000000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2000000</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2000000</v>
+        <v>-1250000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2750000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4000000</v>
+        <v>-6500000</v>
       </c>
     </row>
     <row r="11">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5500000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6500000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-42 Cô Na giúp việc 8-2024.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="4">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="32">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
